--- a/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/2017/Grn Alcohol.xlsx
+++ b/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/2017/Grn Alcohol.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Grn Alcohol" sheetId="18" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Grn Alcohol'!$A$2:$BQ$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Grn Alcohol'!$A$2:$BR$2</definedName>
     <definedName name="_lu1">#REF!</definedName>
     <definedName name="_lu2">#REF!</definedName>
   </definedNames>
@@ -29,7 +29,7 @@
     <author>amalviy</author>
   </authors>
   <commentList>
-    <comment ref="F6" authorId="0" shapeId="0">
+    <comment ref="G6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="160">
   <si>
     <t>GUARANTEED_FUNDS</t>
   </si>
@@ -536,6 +536,9 @@
   <si>
     <t xml:space="preserve">REVENUE 
 </t>
+  </si>
+  <si>
+    <t>Save Label</t>
   </si>
 </sst>
 </file>
@@ -961,9 +964,7 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -974,6 +975,58 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -982,9 +1035,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -995,63 +1046,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -1430,7 +1425,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1453,10 +1448,10 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1492,22 +1487,22 @@
     <xf numFmtId="0" fontId="26" fillId="6" borderId="1" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="16" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="13" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="16" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="13" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="16" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="13" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1534,31 +1529,31 @@
     <xf numFmtId="49" fontId="26" fillId="5" borderId="1" xfId="221" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="5" borderId="16" xfId="221" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="5" borderId="13" xfId="221" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="17" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="14" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="17" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="14" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="5" borderId="17" xfId="221" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="5" borderId="14" xfId="221" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="17" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="14" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1567,7 +1562,7 @@
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1576,7 +1571,7 @@
     <xf numFmtId="0" fontId="29" fillId="4" borderId="3" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1588,7 +1583,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1609,7 +1604,7 @@
     <xf numFmtId="0" fontId="26" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1621,18 +1616,24 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="364">
@@ -2352,81 +2353,82 @@
   <sheetPr codeName="Sheet8">
     <tabColor theme="0" tint="-0.14999847407452621"/>
   </sheetPr>
-  <dimension ref="A1:BS13"/>
+  <dimension ref="A1:BT13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3:F10"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="0.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="69.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="50.7109375" style="2" customWidth="1"/>
-    <col min="8" max="9" width="22.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="35" style="2" customWidth="1"/>
-    <col min="11" max="12" width="36.140625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="19" style="2" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.5703125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="24" style="2" customWidth="1"/>
-    <col min="18" max="20" width="18.5703125" style="2" customWidth="1"/>
-    <col min="21" max="21" width="33.5703125" style="2" customWidth="1"/>
-    <col min="22" max="23" width="20" style="2" customWidth="1"/>
-    <col min="24" max="25" width="20.28515625" style="2" customWidth="1"/>
-    <col min="26" max="26" width="24" style="2" customWidth="1"/>
-    <col min="27" max="27" width="33.140625" style="2" customWidth="1"/>
-    <col min="28" max="29" width="20.28515625" style="2" customWidth="1"/>
-    <col min="30" max="30" width="51" style="2" customWidth="1"/>
-    <col min="31" max="31" width="36.42578125" style="2" customWidth="1"/>
-    <col min="32" max="32" width="21.28515625" style="2" customWidth="1"/>
-    <col min="33" max="33" width="27.28515625" style="2" customWidth="1"/>
-    <col min="34" max="36" width="51.5703125" style="2" customWidth="1"/>
-    <col min="37" max="37" width="32.5703125" style="2" customWidth="1"/>
-    <col min="38" max="39" width="40.42578125" style="2" customWidth="1"/>
-    <col min="40" max="40" width="39.85546875" style="2" customWidth="1"/>
-    <col min="41" max="41" width="49.140625" style="2" customWidth="1"/>
-    <col min="42" max="42" width="40.28515625" style="2" customWidth="1"/>
-    <col min="43" max="43" width="26.140625" style="2" customWidth="1"/>
-    <col min="44" max="44" width="19.7109375" style="2" customWidth="1"/>
-    <col min="45" max="45" width="19.5703125" style="2" customWidth="1"/>
-    <col min="46" max="48" width="24.140625" style="2" customWidth="1"/>
-    <col min="49" max="54" width="24.42578125" style="2" customWidth="1"/>
-    <col min="55" max="56" width="21.42578125" style="2" customWidth="1"/>
-    <col min="57" max="62" width="45.28515625" style="2" customWidth="1"/>
-    <col min="63" max="64" width="47.28515625" style="2" customWidth="1"/>
-    <col min="65" max="65" width="28.28515625" style="2" customWidth="1"/>
-    <col min="66" max="66" width="36.140625" style="2" customWidth="1"/>
-    <col min="67" max="67" width="51.28515625" style="2" customWidth="1"/>
-    <col min="68" max="69" width="61" style="2" customWidth="1"/>
-    <col min="70" max="70" width="50.7109375" style="2" customWidth="1"/>
-    <col min="71" max="71" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="69.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="50.7109375" style="2" customWidth="1"/>
+    <col min="9" max="10" width="22.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="35" style="2" customWidth="1"/>
+    <col min="12" max="13" width="36.140625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="19" style="2" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="24" style="2" customWidth="1"/>
+    <col min="19" max="21" width="18.5703125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="33.5703125" style="2" customWidth="1"/>
+    <col min="23" max="24" width="20" style="2" customWidth="1"/>
+    <col min="25" max="26" width="20.28515625" style="2" customWidth="1"/>
+    <col min="27" max="27" width="24" style="2" customWidth="1"/>
+    <col min="28" max="28" width="33.140625" style="2" customWidth="1"/>
+    <col min="29" max="30" width="20.28515625" style="2" customWidth="1"/>
+    <col min="31" max="31" width="51" style="2" customWidth="1"/>
+    <col min="32" max="32" width="36.42578125" style="2" customWidth="1"/>
+    <col min="33" max="33" width="21.28515625" style="2" customWidth="1"/>
+    <col min="34" max="34" width="27.28515625" style="2" customWidth="1"/>
+    <col min="35" max="37" width="51.5703125" style="2" customWidth="1"/>
+    <col min="38" max="38" width="32.5703125" style="2" customWidth="1"/>
+    <col min="39" max="40" width="40.42578125" style="2" customWidth="1"/>
+    <col min="41" max="41" width="39.85546875" style="2" customWidth="1"/>
+    <col min="42" max="42" width="49.140625" style="2" customWidth="1"/>
+    <col min="43" max="43" width="40.28515625" style="2" customWidth="1"/>
+    <col min="44" max="44" width="26.140625" style="2" customWidth="1"/>
+    <col min="45" max="45" width="19.7109375" style="2" customWidth="1"/>
+    <col min="46" max="46" width="19.5703125" style="2" customWidth="1"/>
+    <col min="47" max="49" width="24.140625" style="2" customWidth="1"/>
+    <col min="50" max="55" width="24.42578125" style="2" customWidth="1"/>
+    <col min="56" max="57" width="21.42578125" style="2" customWidth="1"/>
+    <col min="58" max="63" width="45.28515625" style="2" customWidth="1"/>
+    <col min="64" max="65" width="47.28515625" style="2" customWidth="1"/>
+    <col min="66" max="66" width="28.28515625" style="2" customWidth="1"/>
+    <col min="67" max="67" width="36.140625" style="2" customWidth="1"/>
+    <col min="68" max="68" width="51.28515625" style="2" customWidth="1"/>
+    <col min="69" max="70" width="61" style="2" customWidth="1"/>
+    <col min="71" max="71" width="50.7109375" style="2" customWidth="1"/>
+    <col min="72" max="72" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" s="52" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:72" s="52" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="62"/>
-      <c r="B1" s="53"/>
-      <c r="C1" s="49" t="s">
+      <c r="B1" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="53"/>
+      <c r="D1" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="E1" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="F1" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="G1" s="50" t="s">
         <v>68</v>
-      </c>
-      <c r="G1" s="50" t="s">
-        <v>80</v>
       </c>
       <c r="H1" s="50" t="s">
         <v>80</v>
@@ -2437,20 +2439,20 @@
       <c r="J1" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="K1" s="61" t="s">
-        <v>122</v>
+      <c r="K1" s="50" t="s">
+        <v>80</v>
       </c>
       <c r="L1" s="61" t="s">
         <v>122</v>
       </c>
       <c r="M1" s="61" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="N1" s="61" t="s">
         <v>118</v>
       </c>
       <c r="O1" s="61" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="P1" s="61" t="s">
         <v>132</v>
@@ -2468,7 +2470,7 @@
         <v>132</v>
       </c>
       <c r="U1" s="61" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="V1" s="61" t="s">
         <v>83</v>
@@ -2477,7 +2479,7 @@
         <v>83</v>
       </c>
       <c r="X1" s="61" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="Y1" s="61" t="s">
         <v>133</v>
@@ -2485,7 +2487,7 @@
       <c r="Z1" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="AA1" s="50" t="s">
+      <c r="AA1" s="61" t="s">
         <v>133</v>
       </c>
       <c r="AB1" s="50" t="s">
@@ -2495,19 +2497,19 @@
         <v>133</v>
       </c>
       <c r="AD1" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE1" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="AE1" s="48" t="s">
+      <c r="AF1" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="AF1" s="48" t="s">
+      <c r="AG1" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="AG1" s="48" t="s">
+      <c r="AH1" s="48" t="s">
         <v>140</v>
-      </c>
-      <c r="AH1" s="61" t="s">
-        <v>141</v>
       </c>
       <c r="AI1" s="61" t="s">
         <v>141</v>
@@ -2515,35 +2517,35 @@
       <c r="AJ1" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="AK1" s="51" t="s">
+      <c r="AK1" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL1" s="51" t="s">
         <v>142</v>
-      </c>
-      <c r="AL1" s="61" t="s">
-        <v>144</v>
       </c>
       <c r="AM1" s="61" t="s">
         <v>144</v>
       </c>
-      <c r="AN1" s="50" t="s">
-        <v>150</v>
+      <c r="AN1" s="61" t="s">
+        <v>144</v>
       </c>
       <c r="AO1" s="50" t="s">
         <v>150</v>
       </c>
       <c r="AP1" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="AQ1" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="AQ1" s="50" t="s">
+      <c r="AR1" s="50" t="s">
         <v>153</v>
-      </c>
-      <c r="AR1" s="50" t="s">
-        <v>154</v>
       </c>
       <c r="AS1" s="50" t="s">
         <v>154</v>
       </c>
       <c r="AT1" s="50" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AU1" s="50" t="s">
         <v>155</v>
@@ -2552,7 +2554,7 @@
         <v>155</v>
       </c>
       <c r="AW1" s="50" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AX1" s="50" t="s">
         <v>156</v>
@@ -2570,13 +2572,13 @@
         <v>156</v>
       </c>
       <c r="BC1" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="BD1" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="BD1" s="50" t="s">
+      <c r="BE1" s="50" t="s">
         <v>137</v>
-      </c>
-      <c r="BE1" s="61" t="s">
-        <v>145</v>
       </c>
       <c r="BF1" s="61" t="s">
         <v>145</v>
@@ -2588,25 +2590,25 @@
         <v>145</v>
       </c>
       <c r="BI1" s="61" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="BJ1" s="61" t="s">
         <v>146</v>
       </c>
       <c r="BK1" s="61" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="BL1" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="BM1" s="50" t="s">
+      <c r="BM1" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="BN1" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="BN1" s="51" t="s">
+      <c r="BO1" s="51" t="s">
         <v>147</v>
-      </c>
-      <c r="BO1" s="61" t="s">
-        <v>152</v>
       </c>
       <c r="BP1" s="61" t="s">
         <v>152</v>
@@ -2614,106 +2616,107 @@
       <c r="BQ1" s="61" t="s">
         <v>152</v>
       </c>
-      <c r="BR1" s="50" t="s">
+      <c r="BR1" s="61" t="s">
+        <v>152</v>
+      </c>
+      <c r="BS1" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="BS1" s="54" t="s">
+      <c r="BT1" s="54" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:71" s="7" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:72" s="7" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8"/>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="V2" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="W2" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="X2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Z2" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="AA2" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AB2" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="AB2" s="5" t="s">
+      <c r="AC2" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AC2" s="5" t="s">
+      <c r="AD2" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AE2" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="AE2" s="55" t="s">
+      <c r="AF2" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="AF2" s="56" t="s">
+      <c r="AG2" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="AG2" s="56" t="s">
+      <c r="AH2" s="56" t="s">
         <v>88</v>
-      </c>
-      <c r="AH2" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="AI2" s="5" t="s">
         <v>81</v>
@@ -2725,221 +2728,226 @@
         <v>81</v>
       </c>
       <c r="AL2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AM2" s="5" t="s">
+      <c r="AN2" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="AN2" s="5" t="s">
+      <c r="AO2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="AO2" s="5" t="s">
+      <c r="AP2" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="AP2" s="5" t="s">
+      <c r="AQ2" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AQ2" s="5" t="s">
+      <c r="AR2" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="AR2" s="5" t="s">
+      <c r="AS2" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="AS2" s="5" t="s">
+      <c r="AT2" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="AT2" s="5" t="s">
+      <c r="AU2" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="AU2" s="5" t="s">
+      <c r="AV2" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="AV2" s="5" t="s">
+      <c r="AW2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AW2" s="5" t="s">
+      <c r="AX2" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="AX2" s="5" t="s">
+      <c r="AY2" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AY2" s="5" t="s">
+      <c r="AZ2" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="AZ2" s="5" t="s">
+      <c r="BA2" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="BA2" s="5" t="s">
+      <c r="BB2" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="BB2" s="5" t="s">
+      <c r="BC2" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="BC2" s="5" t="s">
+      <c r="BD2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="BD2" s="5" t="s">
+      <c r="BE2" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="BE2" s="5" t="s">
+      <c r="BF2" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="BF2" s="5" t="s">
+      <c r="BG2" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="BG2" s="5" t="s">
+      <c r="BH2" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="BH2" s="5" t="s">
+      <c r="BI2" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BI2" s="5" t="s">
+      <c r="BJ2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="BJ2" s="5" t="s">
+      <c r="BK2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="BK2" s="5" t="s">
+      <c r="BL2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="BL2" s="5" t="s">
+      <c r="BM2" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="BM2" s="5" t="s">
+      <c r="BN2" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="BN2" s="5" t="s">
+      <c r="BO2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="BO2" s="5" t="s">
+      <c r="BP2" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="BP2" s="5" t="s">
+      <c r="BQ2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="BQ2" s="5" t="s">
+      <c r="BR2" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="BR2" s="5" t="s">
+      <c r="BS2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="BS2" s="6" t="s">
+      <c r="BT2" s="6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:71" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="66" t="s">
+    <row r="3" spans="1:72" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="69" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="65" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="57">
+      <c r="D3" s="57">
         <v>270</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="E3" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="F3" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="26">
+      <c r="G3" s="26">
         <v>605737</v>
       </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="22"/>
+      <c r="I3" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="J3" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="K3" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="K3" s="22">
+      <c r="L3" s="22">
         <v>142</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="M3" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="N3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="22" t="s">
+      <c r="O3" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="22" t="s">
+      <c r="P3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="22" t="s">
+      <c r="Q3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="22" t="s">
+      <c r="R3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="22" t="s">
+      <c r="S3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22" t="s">
+      <c r="T3" s="22"/>
+      <c r="U3" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="22" t="s">
+      <c r="V3" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="V3" s="57">
+      <c r="W3" s="57">
         <v>270</v>
       </c>
-      <c r="W3" s="22" t="s">
+      <c r="X3" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="X3" s="22" t="s">
+      <c r="Y3" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="Y3" s="22" t="s">
+      <c r="Z3" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="Z3" s="22" t="s">
+      <c r="AA3" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="AA3" s="22">
+      <c r="AB3" s="22">
         <v>38123</v>
       </c>
-      <c r="AB3" s="22" t="s">
+      <c r="AC3" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="AC3" s="35" t="s">
+      <c r="AD3" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="AD3" s="22" t="s">
+      <c r="AE3" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="AE3" s="24" t="s">
+      <c r="AF3" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="AF3" s="24" t="s">
+      <c r="AG3" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="AG3" s="24" t="s">
+      <c r="AH3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="AH3" s="22"/>
       <c r="AI3" s="22"/>
-      <c r="AJ3" s="22" t="s">
+      <c r="AJ3" s="22"/>
+      <c r="AK3" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="AK3" s="22" t="s">
+      <c r="AL3" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="AL3" s="22" t="s">
+      <c r="AM3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="AM3" s="21" t="s">
+      <c r="AN3" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="AN3" s="22"/>
-      <c r="AO3" s="22" t="s">
+      <c r="AO3" s="22"/>
+      <c r="AP3" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="AP3" s="22"/>
-      <c r="AQ3" s="25"/>
+      <c r="AQ3" s="22"/>
       <c r="AR3" s="25"/>
       <c r="AS3" s="25"/>
       <c r="AT3" s="25"/>
@@ -2953,554 +2961,561 @@
       <c r="BB3" s="25"/>
       <c r="BC3" s="25"/>
       <c r="BD3" s="25"/>
-      <c r="BE3" s="22" t="s">
+      <c r="BE3" s="25"/>
+      <c r="BF3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="BF3" s="22" t="s">
+      <c r="BG3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="BG3" s="22" t="s">
+      <c r="BH3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="BH3" s="22" t="s">
+      <c r="BI3" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="BI3" s="22" t="s">
+      <c r="BJ3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="BJ3" s="22" t="s">
+      <c r="BK3" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="BK3" s="22" t="s">
+      <c r="BL3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="BL3" s="26" t="s">
+      <c r="BM3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="BM3" s="22">
+      <c r="BN3" s="22">
         <v>2</v>
       </c>
-      <c r="BN3" s="22" t="s">
+      <c r="BO3" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="BO3" s="22"/>
-      <c r="BP3" s="22" t="s">
+      <c r="BP3" s="22"/>
+      <c r="BQ3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="BQ3" s="25"/>
-      <c r="BR3" s="22" t="s">
+      <c r="BR3" s="25"/>
+      <c r="BS3" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="BS3" s="47" t="s">
+      <c r="BT3" s="47" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:71" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="67"/>
-      <c r="C4" s="58">
+    <row r="4" spans="1:72" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="69" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="66"/>
+      <c r="D4" s="58">
         <v>281</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="E4" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="F4" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="28">
+      <c r="G4" s="28">
         <v>605749</v>
       </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="29"/>
+      <c r="I4" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="J4" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="K4" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="K4" s="29">
+      <c r="L4" s="29">
         <v>50</v>
       </c>
-      <c r="L4" s="29" t="s">
+      <c r="M4" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="M4" s="29" t="s">
+      <c r="N4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="29" t="s">
+      <c r="O4" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="29" t="s">
+      <c r="P4" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="29" t="s">
+      <c r="Q4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="29" t="s">
+      <c r="R4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="R4" s="29" t="s">
+      <c r="S4" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29" t="s">
+      <c r="T4" s="29"/>
+      <c r="U4" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="U4" s="29" t="s">
+      <c r="V4" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="V4" s="58">
+      <c r="W4" s="58">
         <v>281</v>
       </c>
-      <c r="W4" s="29" t="s">
+      <c r="X4" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="X4" s="29" t="s">
+      <c r="Y4" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="Y4" s="29" t="s">
+      <c r="Z4" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="Z4" s="29" t="s">
+      <c r="AA4" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="AA4" s="29" t="s">
+      <c r="AB4" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="AB4" s="29" t="s">
+      <c r="AC4" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="29" t="s">
+      <c r="AD4" s="34"/>
+      <c r="AE4" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="AE4" s="31" t="s">
+      <c r="AF4" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="AF4" s="31" t="s">
+      <c r="AG4" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="AG4" s="31" t="s">
+      <c r="AH4" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="AH4" s="29"/>
-      <c r="AI4" s="29" t="s">
+      <c r="AI4" s="29"/>
+      <c r="AJ4" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="AJ4" s="29" t="s">
+      <c r="AK4" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="AK4" s="30" t="s">
+      <c r="AL4" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="AL4" s="29">
+      <c r="AM4" s="29">
         <v>50</v>
       </c>
-      <c r="AM4" s="33" t="s">
+      <c r="AN4" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="AN4" s="29" t="s">
+      <c r="AO4" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="AO4" s="29">
+      <c r="AP4" s="29">
         <v>100</v>
       </c>
-      <c r="AP4" s="29" t="s">
+      <c r="AQ4" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="AQ4" s="32">
+      <c r="AR4" s="32">
         <v>214877600</v>
       </c>
-      <c r="AR4" s="32" t="s">
+      <c r="AS4" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="AS4" s="32">
+      <c r="AT4" s="32">
         <v>123456789</v>
       </c>
-      <c r="AT4" s="32" t="s">
+      <c r="AU4" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="AU4" s="32" t="s">
+      <c r="AV4" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="AV4" s="32">
+      <c r="AW4" s="32">
         <v>9012633035</v>
       </c>
-      <c r="AW4" s="32" t="s">
+      <c r="AX4" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="AX4" s="32" t="s">
+      <c r="AY4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="AY4" s="32" t="s">
+      <c r="AZ4" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="AZ4" s="32" t="s">
+      <c r="BA4" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="BA4" s="32" t="s">
+      <c r="BB4" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="BB4" s="32" t="s">
+      <c r="BC4" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="BC4" s="32" t="s">
+      <c r="BD4" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="BD4" s="32" t="s">
+      <c r="BE4" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="BE4" s="29">
+      <c r="BF4" s="29">
         <v>20</v>
       </c>
-      <c r="BF4" s="29">
+      <c r="BG4" s="29">
         <v>15</v>
       </c>
-      <c r="BG4" s="29">
+      <c r="BH4" s="29">
         <v>20</v>
       </c>
-      <c r="BH4" s="29" t="s">
+      <c r="BI4" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="BI4" s="29" t="s">
+      <c r="BJ4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="BJ4" s="29" t="s">
+      <c r="BK4" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="BK4" s="29" t="s">
+      <c r="BL4" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="BL4" s="28" t="s">
+      <c r="BM4" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="BM4" s="29">
+      <c r="BN4" s="29">
         <v>1</v>
       </c>
-      <c r="BN4" s="29" t="s">
+      <c r="BO4" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="BO4" s="29"/>
-      <c r="BP4" s="29" t="s">
+      <c r="BP4" s="29"/>
+      <c r="BQ4" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="BQ4" s="32"/>
-      <c r="BR4" s="29" t="s">
+      <c r="BR4" s="32"/>
+      <c r="BS4" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="BS4" s="36" t="s">
+      <c r="BT4" s="36" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:71" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:72" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="45"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="58">
+      <c r="B5" s="70"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="58">
         <v>277</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="E5" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="F5" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="28">
+      <c r="G5" s="28">
         <v>605752</v>
       </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="29"/>
+      <c r="I5" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="J5" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="K5" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="K5" s="29">
+      <c r="L5" s="29">
         <v>50</v>
       </c>
-      <c r="L5" s="29" t="s">
+      <c r="M5" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="M5" s="29" t="s">
+      <c r="N5" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="29" t="s">
+      <c r="O5" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="29" t="s">
+      <c r="P5" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="29" t="s">
+      <c r="Q5" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="Q5" s="29" t="s">
+      <c r="R5" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="R5" s="29" t="s">
+      <c r="S5" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29" t="s">
+      <c r="T5" s="29"/>
+      <c r="U5" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="U5" s="29" t="s">
+      <c r="V5" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="V5" s="58">
+      <c r="W5" s="58">
         <v>277</v>
       </c>
-      <c r="W5" s="29" t="s">
+      <c r="X5" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="X5" s="29" t="s">
+      <c r="Y5" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="Y5" s="29" t="s">
+      <c r="Z5" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="Z5" s="29" t="s">
+      <c r="AA5" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="AA5" s="29" t="s">
+      <c r="AB5" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="AB5" s="29" t="s">
+      <c r="AC5" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="AC5" s="29"/>
-      <c r="AD5" s="29" t="s">
+      <c r="AD5" s="29"/>
+      <c r="AE5" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="AE5" s="31">
+      <c r="AF5" s="31">
         <v>222326680</v>
       </c>
-      <c r="AF5" s="31" t="s">
+      <c r="AG5" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="AG5" s="31" t="s">
+      <c r="AH5" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="AH5" s="29"/>
-      <c r="AI5" s="29" t="s">
+      <c r="AI5" s="29"/>
+      <c r="AJ5" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="AJ5" s="29" t="s">
+      <c r="AK5" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="AK5" s="30" t="s">
+      <c r="AL5" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="AL5" s="29">
+      <c r="AM5" s="29">
         <v>50</v>
       </c>
-      <c r="AM5" s="33" t="s">
+      <c r="AN5" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="AN5" s="29" t="s">
+      <c r="AO5" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="AO5" s="29">
+      <c r="AP5" s="29">
         <v>25</v>
       </c>
-      <c r="AP5" s="29" t="s">
+      <c r="AQ5" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="AQ5" s="32">
+      <c r="AR5" s="32">
         <v>214877600</v>
       </c>
-      <c r="AR5" s="32" t="s">
+      <c r="AS5" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="AS5" s="32">
+      <c r="AT5" s="32">
         <v>123456789</v>
       </c>
-      <c r="AT5" s="32" t="s">
+      <c r="AU5" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="AU5" s="32" t="s">
+      <c r="AV5" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="AV5" s="32">
+      <c r="AW5" s="32">
         <v>9012633035</v>
       </c>
-      <c r="AW5" s="30" t="s">
+      <c r="AX5" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="AX5" s="30" t="s">
+      <c r="AY5" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="AY5" s="30" t="s">
+      <c r="AZ5" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="AZ5" s="30" t="s">
+      <c r="BA5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="BA5" s="32" t="s">
+      <c r="BB5" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="BB5" s="32"/>
-      <c r="BC5" s="32" t="s">
+      <c r="BC5" s="32"/>
+      <c r="BD5" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="BD5" s="32"/>
-      <c r="BE5" s="29">
+      <c r="BE5" s="32"/>
+      <c r="BF5" s="29">
         <v>20</v>
       </c>
-      <c r="BF5" s="29">
+      <c r="BG5" s="29">
         <v>15</v>
       </c>
-      <c r="BG5" s="29">
+      <c r="BH5" s="29">
         <v>20</v>
       </c>
-      <c r="BH5" s="29" t="s">
+      <c r="BI5" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="BI5" s="29" t="s">
+      <c r="BJ5" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="BJ5" s="29" t="s">
+      <c r="BK5" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="BK5" s="29" t="s">
+      <c r="BL5" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="BL5" s="28" t="s">
+      <c r="BM5" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="BM5" s="29">
+      <c r="BN5" s="29">
         <v>1</v>
       </c>
-      <c r="BN5" s="29" t="s">
+      <c r="BO5" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="BO5" s="29"/>
-      <c r="BP5" s="29" t="s">
+      <c r="BP5" s="29"/>
+      <c r="BQ5" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="BQ5" s="32"/>
-      <c r="BR5" s="29" t="s">
+      <c r="BR5" s="32"/>
+      <c r="BS5" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="BS5" s="36" t="s">
+      <c r="BT5" s="36" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:71" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="67"/>
-      <c r="C6" s="58">
+    <row r="6" spans="1:72" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="69" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="66"/>
+      <c r="D6" s="58">
         <v>770</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="E6" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="F6" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="28">
+      <c r="G6" s="28">
         <v>605766</v>
       </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="29"/>
+      <c r="I6" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="I6" s="29" t="s">
+      <c r="J6" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="J6" s="29" t="s">
+      <c r="K6" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="K6" s="29">
+      <c r="L6" s="29">
         <v>70</v>
       </c>
-      <c r="L6" s="29" t="s">
+      <c r="M6" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="M6" s="29" t="s">
+      <c r="N6" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="29" t="s">
+      <c r="O6" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="29" t="s">
+      <c r="P6" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="P6" s="29" t="s">
+      <c r="Q6" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="Q6" s="29" t="s">
+      <c r="R6" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="R6" s="29" t="s">
+      <c r="S6" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29" t="s">
+      <c r="T6" s="29"/>
+      <c r="U6" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="U6" s="29" t="s">
+      <c r="V6" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="V6" s="58">
+      <c r="W6" s="58">
         <v>770</v>
       </c>
-      <c r="W6" s="29" t="s">
+      <c r="X6" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="X6" s="29" t="s">
+      <c r="Y6" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="Y6" s="29" t="s">
+      <c r="Z6" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="Z6" s="29" t="s">
+      <c r="AA6" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="29" t="s">
+      <c r="AB6" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="AB6" s="29" t="s">
+      <c r="AC6" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="AC6" s="34" t="s">
+      <c r="AD6" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="AD6" s="29" t="s">
+      <c r="AE6" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="AE6" s="31" t="s">
+      <c r="AF6" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="AF6" s="31" t="s">
+      <c r="AG6" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="AG6" s="31" t="s">
+      <c r="AH6" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="AH6" s="29" t="s">
+      <c r="AI6" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="AI6" s="29"/>
-      <c r="AJ6" s="29" t="s">
+      <c r="AJ6" s="29"/>
+      <c r="AK6" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="AK6" s="30" t="s">
+      <c r="AL6" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="AL6" s="29">
+      <c r="AM6" s="29">
         <v>70</v>
       </c>
-      <c r="AM6" s="33" t="s">
+      <c r="AN6" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="AN6" s="29"/>
-      <c r="AO6" s="29" t="s">
+      <c r="AO6" s="29"/>
+      <c r="AP6" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="AP6" s="29"/>
-      <c r="AQ6" s="32"/>
+      <c r="AQ6" s="29"/>
       <c r="AR6" s="32"/>
       <c r="AS6" s="32"/>
       <c r="AT6" s="32"/>
@@ -3514,161 +3529,164 @@
       <c r="BB6" s="32"/>
       <c r="BC6" s="32"/>
       <c r="BD6" s="32"/>
-      <c r="BE6" s="29">
-        <v>20</v>
-      </c>
+      <c r="BE6" s="32"/>
       <c r="BF6" s="29">
         <v>20</v>
       </c>
-      <c r="BG6" s="29" t="s">
+      <c r="BG6" s="29">
+        <v>20</v>
+      </c>
+      <c r="BH6" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="BH6" s="29" t="s">
+      <c r="BI6" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="BI6" s="29" t="s">
+      <c r="BJ6" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="BJ6" s="29" t="s">
+      <c r="BK6" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="BK6" s="29" t="s">
+      <c r="BL6" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="BL6" s="28" t="s">
+      <c r="BM6" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="BM6" s="29">
+      <c r="BN6" s="29">
         <v>1</v>
       </c>
-      <c r="BN6" s="29" t="s">
+      <c r="BO6" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="BO6" s="29" t="s">
+      <c r="BP6" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="BP6" s="29"/>
       <c r="BQ6" s="29"/>
-      <c r="BR6" s="29" t="s">
+      <c r="BR6" s="29"/>
+      <c r="BS6" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="BS6" s="36" t="s">
+      <c r="BT6" s="36" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:71" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="67"/>
-      <c r="C7" s="58">
+    <row r="7" spans="1:72" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="69" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="66"/>
+      <c r="D7" s="58">
         <v>780</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="E7" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="F7" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="28">
+      <c r="G7" s="28">
         <v>605772</v>
       </c>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="29"/>
+      <c r="I7" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="I7" s="29" t="s">
+      <c r="J7" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="J7" s="29" t="s">
+      <c r="K7" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="K7" s="29">
+      <c r="L7" s="29">
         <v>60</v>
       </c>
-      <c r="L7" s="29" t="s">
+      <c r="M7" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="M7" s="29" t="s">
+      <c r="N7" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="29" t="s">
+      <c r="O7" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="O7" s="29" t="s">
+      <c r="P7" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="P7" s="29" t="s">
+      <c r="Q7" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="Q7" s="29" t="s">
+      <c r="R7" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="R7" s="29" t="s">
+      <c r="S7" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29" t="s">
+      <c r="T7" s="29"/>
+      <c r="U7" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="29" t="s">
+      <c r="V7" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="V7" s="58">
+      <c r="W7" s="58">
         <v>780</v>
       </c>
-      <c r="W7" s="29" t="s">
+      <c r="X7" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="X7" s="29" t="s">
+      <c r="Y7" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="Y7" s="29" t="s">
+      <c r="Z7" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="Z7" s="29" t="s">
+      <c r="AA7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="AA7" s="29" t="s">
+      <c r="AB7" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="AB7" s="29" t="s">
+      <c r="AC7" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="AC7" s="34" t="s">
+      <c r="AD7" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="AD7" s="29" t="s">
+      <c r="AE7" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="AE7" s="28" t="s">
+      <c r="AF7" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="AF7" s="31" t="s">
+      <c r="AG7" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="AG7" s="31" t="s">
+      <c r="AH7" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="AH7" s="29" t="s">
+      <c r="AI7" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="AI7" s="29"/>
-      <c r="AJ7" s="29" t="s">
+      <c r="AJ7" s="29"/>
+      <c r="AK7" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="AK7" s="30" t="s">
+      <c r="AL7" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="AL7" s="29">
+      <c r="AM7" s="29">
         <v>60</v>
       </c>
-      <c r="AM7" s="33" t="s">
+      <c r="AN7" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="AN7" s="29"/>
-      <c r="AO7" s="29" t="s">
+      <c r="AO7" s="29"/>
+      <c r="AP7" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="AP7" s="29"/>
-      <c r="AQ7" s="32"/>
+      <c r="AQ7" s="29"/>
       <c r="AR7" s="32"/>
       <c r="AS7" s="32"/>
       <c r="AT7" s="32"/>
@@ -3682,165 +3700,168 @@
       <c r="BB7" s="32"/>
       <c r="BC7" s="32"/>
       <c r="BD7" s="32"/>
-      <c r="BE7" s="29">
+      <c r="BE7" s="32"/>
+      <c r="BF7" s="29">
         <v>20</v>
       </c>
-      <c r="BF7" s="29">
+      <c r="BG7" s="29">
         <v>15</v>
       </c>
-      <c r="BG7" s="29">
+      <c r="BH7" s="29">
         <v>20</v>
       </c>
-      <c r="BH7" s="29" t="s">
+      <c r="BI7" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="BI7" s="29" t="s">
+      <c r="BJ7" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="BJ7" s="29" t="s">
+      <c r="BK7" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="BK7" s="29" t="s">
+      <c r="BL7" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="BL7" s="28" t="s">
+      <c r="BM7" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="BM7" s="29">
+      <c r="BN7" s="29">
         <v>1</v>
       </c>
-      <c r="BN7" s="29" t="s">
+      <c r="BO7" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="BO7" s="29" t="s">
+      <c r="BP7" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="BP7" s="29" t="s">
+      <c r="BQ7" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="BQ7" s="29" t="s">
+      <c r="BR7" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="BR7" s="29" t="s">
+      <c r="BS7" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="BS7" s="36" t="s">
+      <c r="BT7" s="36" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:71" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="67"/>
-      <c r="C8" s="58">
+    <row r="8" spans="1:72" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="69" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="66"/>
+      <c r="D8" s="58">
         <v>777</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="E8" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="F8" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="28">
+      <c r="G8" s="28">
         <v>605776</v>
       </c>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29" t="s">
+      <c r="H8" s="29"/>
+      <c r="I8" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="I8" s="29" t="s">
+      <c r="J8" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="J8" s="29" t="s">
+      <c r="K8" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="K8" s="29">
+      <c r="L8" s="29">
         <v>20</v>
       </c>
-      <c r="L8" s="29" t="s">
+      <c r="M8" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="M8" s="29" t="s">
+      <c r="N8" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="29" t="s">
+      <c r="O8" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="29" t="s">
+      <c r="P8" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="P8" s="29" t="s">
+      <c r="Q8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="Q8" s="29" t="s">
+      <c r="R8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="R8" s="29" t="s">
+      <c r="S8" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29" t="s">
+      <c r="T8" s="29"/>
+      <c r="U8" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="U8" s="29" t="s">
+      <c r="V8" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="V8" s="58">
+      <c r="W8" s="58">
         <v>777</v>
       </c>
-      <c r="W8" s="29" t="s">
+      <c r="X8" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="X8" s="29" t="s">
+      <c r="Y8" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="Y8" s="29" t="s">
+      <c r="Z8" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="Z8" s="29" t="s">
+      <c r="AA8" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="AA8" s="29" t="s">
+      <c r="AB8" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AB8" s="29" t="s">
+      <c r="AC8" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="AC8" s="34" t="s">
+      <c r="AD8" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="AD8" s="28" t="s">
+      <c r="AE8" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="AE8" s="28">
+      <c r="AF8" s="28">
         <v>222327008</v>
       </c>
-      <c r="AF8" s="31" t="s">
+      <c r="AG8" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="AG8" s="31" t="s">
+      <c r="AH8" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="AH8" s="29" t="s">
+      <c r="AI8" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="AI8" s="29"/>
-      <c r="AJ8" s="29" t="s">
+      <c r="AJ8" s="29"/>
+      <c r="AK8" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="AK8" s="30" t="s">
+      <c r="AL8" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="AL8" s="29">
+      <c r="AM8" s="29">
         <v>20</v>
       </c>
-      <c r="AM8" s="33" t="s">
+      <c r="AN8" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="AN8" s="29"/>
-      <c r="AO8" s="29" t="s">
+      <c r="AO8" s="29"/>
+      <c r="AP8" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="AP8" s="29"/>
-      <c r="AQ8" s="32"/>
+      <c r="AQ8" s="29"/>
       <c r="AR8" s="32"/>
       <c r="AS8" s="32"/>
       <c r="AT8" s="32"/>
@@ -3854,165 +3875,168 @@
       <c r="BB8" s="32"/>
       <c r="BC8" s="32"/>
       <c r="BD8" s="32"/>
-      <c r="BE8" s="29">
+      <c r="BE8" s="32"/>
+      <c r="BF8" s="29">
         <v>20</v>
       </c>
-      <c r="BF8" s="29">
+      <c r="BG8" s="29">
         <v>15</v>
       </c>
-      <c r="BG8" s="29">
+      <c r="BH8" s="29">
         <v>20</v>
       </c>
-      <c r="BH8" s="29" t="s">
+      <c r="BI8" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="BI8" s="29" t="s">
+      <c r="BJ8" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="BJ8" s="29" t="s">
+      <c r="BK8" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="BK8" s="29" t="s">
+      <c r="BL8" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="BL8" s="28" t="s">
+      <c r="BM8" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="BM8" s="29">
+      <c r="BN8" s="29">
         <v>1</v>
       </c>
-      <c r="BN8" s="29" t="s">
+      <c r="BO8" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="BO8" s="29" t="s">
+      <c r="BP8" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="BP8" s="29" t="s">
+      <c r="BQ8" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="BQ8" s="29" t="s">
+      <c r="BR8" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="BR8" s="32" t="s">
+      <c r="BS8" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="BS8" s="36" t="s">
+      <c r="BT8" s="36" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:71" s="1" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="68"/>
-      <c r="C9" s="59">
+    <row r="9" spans="1:72" s="1" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="69" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="67"/>
+      <c r="D9" s="59">
         <v>776</v>
       </c>
-      <c r="D9" s="60" t="s">
+      <c r="E9" s="60" t="s">
         <v>131</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="F9" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="38">
+      <c r="G9" s="38">
         <v>605777</v>
       </c>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39" t="s">
+      <c r="H9" s="39"/>
+      <c r="I9" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="I9" s="39" t="s">
+      <c r="J9" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="J9" s="39" t="s">
+      <c r="K9" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="K9" s="39">
+      <c r="L9" s="39">
         <v>100</v>
       </c>
-      <c r="L9" s="39" t="s">
+      <c r="M9" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="M9" s="39" t="s">
+      <c r="N9" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="39" t="s">
+      <c r="O9" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="O9" s="39" t="s">
+      <c r="P9" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="P9" s="39" t="s">
+      <c r="Q9" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="Q9" s="39" t="s">
+      <c r="R9" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="R9" s="39" t="s">
+      <c r="S9" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39" t="s">
+      <c r="T9" s="39"/>
+      <c r="U9" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="U9" s="39" t="s">
+      <c r="V9" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="V9" s="59">
+      <c r="W9" s="59">
         <v>776</v>
       </c>
-      <c r="W9" s="39" t="s">
+      <c r="X9" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="X9" s="39" t="s">
+      <c r="Y9" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="Y9" s="39" t="s">
+      <c r="Z9" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="Z9" s="39" t="s">
+      <c r="AA9" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="AA9" s="39" t="s">
+      <c r="AB9" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="AB9" s="39" t="s">
+      <c r="AC9" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="AC9" s="40" t="s">
+      <c r="AD9" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="AD9" s="38" t="s">
+      <c r="AE9" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="AE9" s="41">
+      <c r="AF9" s="41">
         <v>222327008</v>
       </c>
-      <c r="AF9" s="41" t="s">
+      <c r="AG9" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="AG9" s="41" t="s">
+      <c r="AH9" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="AH9" s="39" t="s">
+      <c r="AI9" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="AI9" s="39"/>
-      <c r="AJ9" s="39" t="s">
+      <c r="AJ9" s="39"/>
+      <c r="AK9" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="AK9" s="39" t="s">
+      <c r="AL9" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="AL9" s="39" t="s">
+      <c r="AM9" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="AM9" s="42" t="s">
+      <c r="AN9" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="AN9" s="39"/>
-      <c r="AO9" s="39" t="s">
+      <c r="AO9" s="39"/>
+      <c r="AP9" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="AP9" s="39"/>
-      <c r="AQ9" s="43"/>
+      <c r="AQ9" s="39"/>
       <c r="AR9" s="43"/>
       <c r="AS9" s="43"/>
       <c r="AT9" s="43"/>
@@ -4026,272 +4050,276 @@
       <c r="BB9" s="43"/>
       <c r="BC9" s="43"/>
       <c r="BD9" s="43"/>
-      <c r="BE9" s="39" t="s">
+      <c r="BE9" s="43"/>
+      <c r="BF9" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="BF9" s="39" t="s">
+      <c r="BG9" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="BG9" s="39" t="s">
+      <c r="BH9" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="BH9" s="39" t="s">
+      <c r="BI9" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="BI9" s="39" t="s">
+      <c r="BJ9" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="BJ9" s="39" t="s">
+      <c r="BK9" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="BK9" s="39" t="s">
+      <c r="BL9" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="BL9" s="38" t="s">
+      <c r="BM9" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="BM9" s="39">
+      <c r="BN9" s="39">
         <v>2</v>
       </c>
-      <c r="BN9" s="39" t="s">
+      <c r="BO9" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="BO9" s="39" t="s">
+      <c r="BP9" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="BP9" s="39"/>
-      <c r="BQ9" s="39" t="s">
+      <c r="BQ9" s="39"/>
+      <c r="BR9" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="BR9" s="43" t="s">
+      <c r="BS9" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="BS9" s="44" t="s">
+      <c r="BT9" s="44" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:71" s="1" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="64" t="s">
+    <row r="10" spans="1:72" s="1" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="68" t="s">
         <v>157</v>
       </c>
-      <c r="C10" s="12">
+      <c r="D10" s="12">
         <v>280</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="E10" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="F10" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="20">
+      <c r="G10" s="20">
         <v>605746</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="15"/>
+      <c r="I10" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="J10" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="K10" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="K10" s="15">
+      <c r="L10" s="15">
         <v>69</v>
       </c>
-      <c r="L10" s="15" t="s">
+      <c r="M10" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="M10" s="15" t="s">
+      <c r="N10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="N10" s="15" t="s">
+      <c r="O10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="O10" s="15" t="s">
+      <c r="P10" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="P10" s="15" t="s">
+      <c r="Q10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="Q10" s="15" t="s">
+      <c r="R10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="R10" s="15" t="s">
+      <c r="S10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15" t="s">
+      <c r="T10" s="15"/>
+      <c r="U10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="U10" s="15" t="s">
+      <c r="V10" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="V10" s="12">
+      <c r="W10" s="12">
         <v>280</v>
       </c>
-      <c r="W10" s="15" t="s">
+      <c r="X10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="X10" s="15" t="s">
+      <c r="Y10" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="Y10" s="15" t="s">
+      <c r="Z10" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="Z10" s="15" t="s">
+      <c r="AA10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AA10" s="15" t="s">
+      <c r="AB10" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="AB10" s="15" t="s">
+      <c r="AC10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="AC10" s="15"/>
-      <c r="AD10" s="15" t="s">
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="AE10" s="16" t="s">
+      <c r="AF10" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="AF10" s="16" t="s">
+      <c r="AG10" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="AG10" s="16" t="s">
+      <c r="AH10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="AH10" s="15"/>
-      <c r="AI10" s="15" t="s">
+      <c r="AI10" s="15"/>
+      <c r="AJ10" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="AJ10" s="15" t="s">
+      <c r="AK10" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="AK10" s="17" t="s">
+      <c r="AL10" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="AL10" s="15">
+      <c r="AM10" s="15">
         <v>69</v>
       </c>
-      <c r="AM10" s="14" t="s">
+      <c r="AN10" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="AN10" s="15" t="s">
+      <c r="AO10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="AO10" s="15">
+      <c r="AP10" s="15">
         <v>25</v>
       </c>
-      <c r="AP10" s="15" t="s">
+      <c r="AQ10" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AQ10" s="18">
+      <c r="AR10" s="18">
         <v>214877600</v>
       </c>
-      <c r="AR10" s="18" t="s">
+      <c r="AS10" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="AS10" s="18">
+      <c r="AT10" s="18">
         <v>123456789</v>
       </c>
-      <c r="AT10" s="18" t="s">
+      <c r="AU10" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="AU10" s="18" t="s">
+      <c r="AV10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="AV10" s="18">
+      <c r="AW10" s="18">
         <v>9012633035</v>
       </c>
-      <c r="AW10" s="15" t="s">
+      <c r="AX10" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AX10" s="15" t="s">
+      <c r="AY10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="AY10" s="15" t="s">
+      <c r="AZ10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AZ10" s="15" t="s">
+      <c r="BA10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="BA10" s="18" t="s">
+      <c r="BB10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="BB10" s="19" t="s">
+      <c r="BC10" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="BC10" s="18" t="s">
+      <c r="BD10" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="BD10" s="18"/>
-      <c r="BE10" s="15">
+      <c r="BE10" s="18"/>
+      <c r="BF10" s="15">
         <v>20</v>
       </c>
-      <c r="BF10" s="15">
+      <c r="BG10" s="15">
         <v>15</v>
       </c>
-      <c r="BG10" s="15">
+      <c r="BH10" s="15">
         <v>20</v>
       </c>
-      <c r="BH10" s="15" t="s">
+      <c r="BI10" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="BI10" s="15" t="s">
+      <c r="BJ10" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="BJ10" s="15" t="s">
+      <c r="BK10" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="BK10" s="15" t="s">
+      <c r="BL10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="BL10" s="20" t="s">
+      <c r="BM10" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="BM10" s="15">
+      <c r="BN10" s="15">
         <v>1</v>
       </c>
-      <c r="BN10" s="15" t="s">
+      <c r="BO10" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="BO10" s="15"/>
-      <c r="BP10" s="15" t="s">
+      <c r="BP10" s="15"/>
+      <c r="BQ10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="BQ10" s="18"/>
-      <c r="BR10" s="15" t="s">
+      <c r="BR10" s="18"/>
+      <c r="BS10" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="BS10" s="65" t="s">
+      <c r="BT10" s="64" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:71" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="AD11" s="4"/>
-      <c r="AE11" s="63"/>
-      <c r="AF11" s="4"/>
-      <c r="AG11" s="63"/>
-      <c r="AH11" s="4"/>
+    <row r="11" spans="1:72" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="63"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="63"/>
+      <c r="AI11" s="4"/>
     </row>
-    <row r="12" spans="1:71" x14ac:dyDescent="0.2">
-      <c r="AD12" s="4"/>
-      <c r="AE12" s="63"/>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="63"/>
-      <c r="AH12" s="4"/>
+    <row r="12" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="63"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="63"/>
+      <c r="AI12" s="4"/>
     </row>
-    <row r="13" spans="1:71" x14ac:dyDescent="0.2">
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="63"/>
-      <c r="AF13" s="4"/>
-      <c r="AG13" s="63"/>
-      <c r="AH13" s="4"/>
+    <row r="13" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="63"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="63"/>
+      <c r="AI13" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C3:C9"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
